--- a/New Microsoft Excel Worksheet.xlsx
+++ b/New Microsoft Excel Worksheet.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>55+4</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>number</t>
   </si>
@@ -34,19 +28,19 @@
     <t>asda</t>
   </si>
   <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>qwe</t>
-  </si>
-  <si>
-    <t>rqwrqr</t>
+    <t>ghjghj</t>
+  </si>
+  <si>
+    <t>448ghj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -76,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,92 +380,80 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>966546159875</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>564321987</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>966587965215</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>966987654321</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>89954652154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-    </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>123</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>122</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>